--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\THESIS\PROJECT_SENTIMENMB\Sentiment_merdeka_belajar\data_uji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C842926-FFBF-41BA-8A9A-FB9DB288CF7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0683CD-E483-4EBE-AF8F-065DEFCF9E89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,56 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
-  <si>
-    <t>Yuup... 
-Setuju sekali dgn argumen ini... 
-Sy merasakan bagaimana tersiksanya anak sy hrs Mati2an belajar salah satu mata pelajaran UN yg tdk disukai hanya utk mengejar nilai bagus secara instan dgn les atau bimbel.
-Krn nilai UN ibarat sebab setitik nila,  rusak susu sebelangga</t>
-  </si>
-  <si>
-    <t>Yg penting skripsi jangan pak wkwk  biar setrong</t>
-  </si>
-  <si>
-    <t>Ujian Standart Nasional itu ada di semua negara maju cuma dgn format yg berbeda, jika mau masuk perguruan tinggi bisa dgn 2 jln, perekrutan berdasarkan minat n bakat n kemampuan atau ujian terbuka bersama..Cc. @jokowi n @Kemdikbud_RI ...</t>
-  </si>
-  <si>
-    <t>UN cuma buang2 anggaran, UN bikin anak kelas 1-5, 7-8, 10-11 ke gangggu belajar karena banyak libur di semester 2 akibat sekolah fokus ngurusin kelas 6,9 dan 12. Padahal bayaran nya mah tetep 12bulan. UN juga cuma jadi ajang promosi pemgusaha bimbel.</t>
-  </si>
-  <si>
-    <t>Hapus aja lah
-Mau standarisasi pake UN jaman dulu tetep aja scorr PISA nasional nya jeblok
-Mending anggaran buat UN nya alirin ke guru honorer, semoga kinerja guru jadi ningkat</t>
-  </si>
-  <si>
-    <t>Lembek tidaknya tergantung dr didikan ortu nya lah, guru ga bs kerja sendiri. Pembentukan akhlak n karakter itu dimulai dr rumah/kel trus dilengkapi dgn ilmudan agama. Sy didikan ortu yg keras n saat itu blm ada UN hasilnya ga ada tuh istilah lembek</t>
-  </si>
-  <si>
-    <t>Iya hapus aja soalnya percuma, udah dapet nilai UN tertinggi tapi gak dipanggil ke depan hehe
-Cc @richbriannnnn</t>
-  </si>
-  <si>
-    <t>Ikut pak mentri</t>
-  </si>
-  <si>
-    <t>Ujian tetap dan harus tapi bukan ujian nasional seperti selama ini yg banyak pilihan ganda</t>
-  </si>
-  <si>
-    <t>Kalau d bilang lemah malah UN bikin para siswa lemah untuk belajar buat apa 3 tahun belajar tapi akhirannya hanya untuk UN...sama aja kayak ulangan krnakompetejsi siea tidak trlihat di hasil UN juga setuju bapak @NadimMakarim  lanjutkan</t>
-  </si>
-  <si>
-    <t>Ane percaye Mendikbud punye strategi bentuk laen untuk model UN. Buktinye di Luar Negeri kaga pake UN.</t>
-  </si>
-  <si>
-    <t>Saya orng daerah dukung @Kemdikbud_RI karena UN jadi momok di daerah yg kurikulum nya tertinggal dari Pusat...Anak2 saya bingung pas UN  soal Materi Pelajaran nya blm pernah di ajarkan di Sekolah nya</t>
-  </si>
-  <si>
-    <t>Vote Pak Menteri Nadiem Makarim. 
-UN gak berguna buat anak2 yg bidang kecerdasannya di luar dari yg dimasukkan dalam kurikulum sekolah. Nilai mereka gak akan bagus dan akan dinilai bodoh saja.  Dengan program asessment berbasis kompetensi, semua anak punya kecerdasan masing2.</t>
-  </si>
-  <si>
-    <t>Aku tim mas menteri milenial</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>label</t>
   </si>
@@ -86,307 +37,357 @@
     <t>No</t>
   </si>
   <si>
-    <t>pengalamn gw, nilai un waktu sd untuk masuk smp, nilai un smp untuk masuk sma, nilai un sma (ga penting) karena fokusnya langsung sbmptn</t>
-  </si>
-  <si>
-    <t>dan pelaksanaannya waktu un sd banyak temen yang nyontek buat masuk smp fav, un smp lebih parah banyak yang nyontek dan banyak juga yang beli kunci jawaban, un sma soalpun bisa bocor karena soalnya difoto -_-</t>
-  </si>
-  <si>
-    <t>yang dpt UN juga lembek banget Pak..bikin laporan praktikum aja udah ngeluhnya luarbiasaa...</t>
-  </si>
-  <si>
-    <t>Program sudah bagus malah di hapus.
-Tujuan pemerintah dulu mengadakan ujian nasional agar kualitas pendidikan bisa merata di seluruh indonesi...
-Klau itu di hapus saya yakin murid akan tambah malas belajarnya.</t>
-  </si>
-  <si>
-    <t>Saya tidak setuju jika UN di hapuskan.</t>
-  </si>
-  <si>
-    <t>Siswa jaman sekarang kan memang sudah lembek, ditegur guru aja auto lapor ortu</t>
-  </si>
-  <si>
-    <t>Sekian tahun pake UN... kita ada diperingkat brapa dunia yah dalam bidang pendidikan??
-Orang tua punya pengalaman dan anak muda punya mimpi...
-Selalu ada ruang untuk berubah.. bukan statis...</t>
-  </si>
-  <si>
-    <t>Iya seharus nya juga mata pelajaran dipangkas
-Karna kebanyakan mapel jadi gak ada yg paling dikuasai murid</t>
-  </si>
-  <si>
-    <t>un dong biar ada sensasinya</t>
-  </si>
-  <si>
-    <t>Ganti lagi... Ampun</t>
-  </si>
-  <si>
-    <t>Percayalah, semua ngomong demi kepentingan masing2 di belakang nya.</t>
-  </si>
-  <si>
-    <t>#UjianNasional Apaan?lembek?.HAPUS UJIAN NASIONAL!!!</t>
-  </si>
-  <si>
-    <t>Jgn dihapus.. biar mereka tau rasanya diputusin pacar dengan alasan fokus UN</t>
-  </si>
-  <si>
-    <t>Sangat gak setuju</t>
-  </si>
-  <si>
-    <t>Rasain aja pas SBMPTN, ntar pada bego gak bisa ngisi soal...
-Lah, basic-nya aja kurang.
-Ditambah ujian PISA, yg maduin basic dengan penalaran...
-Generasi ini bakal nangis kejer, gak bisa ngejar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendikbud Bakal Tambah Kuota Penerimaan Siswa Jalur Prestasi di PPDB Zonasi </t>
-  </si>
-  <si>
-    <t>3. Menyederhanakan Rencana Pelaksanaan Pembelajaran (RPP). Bahkan guru diberi kebebasan menyusun materi dan formatnya
-4. PPDB Zonasi disesuaikan hanya 50%
-#GebrakanNadiem #MerdekaBalajar</t>
-  </si>
-  <si>
-    <t>dalam PPDB, Kemendikbud tetap menggunakan sistem zonasi dengan kebijakan yang lebih fleksibel untuk mengakomodasi ketimpangan akses dan kualitas di berbagai daerah.</t>
-  </si>
-  <si>
-    <t>Kuota PPDB Zonasi Jalur Prestasi Naik 30 Persen https://medcom.id/s/xkE3MLMN pic.twitter.com/V8iismfcHQ</t>
-  </si>
-  <si>
-    <t>Peraturan zonasi dinilai menjadi akses pendidikan anak dari keluarga tidak mampu. http://republika.co.id/berita/pendidikan/eduaction/19/12/12/q2eetn368-pengamat-kritik-perubahan-kuota-ppdb-zonasi …</t>
-  </si>
-  <si>
-    <t>4. PPDB Zonasi
-Sistem Zonasi dibikin lebih fleksibel dan melibatkan Pemerintah Daerah karena merekalah yang lebih tahu dan paham kebutuhan daerahnya. 
-Proporsi dan ketetapan diserahkan ke daerah masing-masing supaya pemerataan pendidikan dapat didorong lebih cepat. pic.twitter.com/zYrjZ24uG1</t>
-  </si>
-  <si>
-    <t>mantap, ppdb jalur zonasi. ayo mari pindah kk ke dekat sekolah favorit daerah kaliaan !!</t>
-  </si>
-  <si>
-    <t>Satu lagi kebijakan Kemendikbud  yang patut diapresiasi dan dicoba: Penerapan PPDB zonasi yg lebih fleksibel agar menyesuaikan dengan tagihan program pemerataan kualitas layanan pendidikan.</t>
-  </si>
-  <si>
-    <t>KPAI : KPAI menilai bahwa kebijakan penghapusan UN sejalan dengan sistem zonasi dalam PPDB.
-#Peristiwa #UjianNasional #NadiemMakariem #KPAIhttps://www.netralnews.com/peristiwa/read/196377/penghapusan-un-ini-tanggapan-kpai …</t>
-  </si>
-  <si>
-    <t>"..maka inilah kesempatan bagi mereka buat mendapatkan sekolah yang baik. Yang diinginkan oleh mereka," lanjut dia.http://dlvr.it/RL3yhc</t>
-  </si>
-  <si>
-    <t>Federasi guru menilai, sistem zonasi merupakan pintu masuk perbaikan kualitas pendidikan nasional.</t>
-  </si>
-  <si>
-    <t>PPDB berbasis zonasi sangat relavan untuk tahun ajaran 2020 dan harus dipertahankan http://republika.co.id/berita/pendidikan/eduaction/19/12/10/q2ainx349-pengamat-sistem-zonasi-harus-diteruskan-dan-disempurnakan …</t>
-  </si>
-  <si>
-    <t>FSGI menilai PPDB zonasi jadikan pendidikan lebih merata dan membuat daerah berbenah http://republika.co.id/berita/pendidikan/eduaction/19/12/10/q2ahjc349-fsgi-khawatir-nadiem-hapus-ppdb-zonasi …</t>
-  </si>
-  <si>
-    <t>Mendikbud Nadiem Makarim tetap mempertahankan sistem zonasi dalam penerimaan peserta didik baru (PPDB). Akan tetapi, ia membuat kebijakan zonasi itu lebih fleksibel untuk mengakomodasi ketimpangan akses dan kualitas di berbagai daerah. #TopNews http://bit.ly/38FfQZA pic.twitter.com/ImrmW1Cp0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPAI: Penghapusan UN Sejalan dengan Sistem Zonasi PPDB </t>
-  </si>
-  <si>
-    <t>Harusnya masuk perguruan tinggi juga pake sistem zonasi... Biar tambah kacau sekalian sdm negeri ini😂</t>
-  </si>
-  <si>
-    <t>Jangan turiti muhadjir effendy mau dikritik mau kaga zonasi harus diganti dengan sistem yang lebih fair</t>
-  </si>
-  <si>
-    <t>Mas Mentri seharusnya sistem wilayah rumah hanya sekitar 25 - 30 % saja alasannya agar murid yang berprestasi tapi rumah yang jauh dari sekolah yang diinginkan bisa masuk dan untuk murid yang rumah kecamatannya berdekatan dengan sekolah tersebut bisa masuk tidak seperti sekarang hanya rumah yang satu kecamatan dengan sekolah yang muridnya bisa masuk</t>
-  </si>
-  <si>
-    <t>Ya betul klk sistem zonasi terus berjalan d desa saya kekeurangan murid/siswa pak, dalam 1 kls bisa sampai 5-15 murid saja pak</t>
-  </si>
-  <si>
-    <t>Kenapa ngga di HAPUS AJAAAAA</t>
-  </si>
-  <si>
-    <t>Setuju zonasi di hapuskan sj .....🤗 🤗 👍 👍 👨‍👩‍👦</t>
-  </si>
-  <si>
-    <t>kalau sistem zonasi banyak yg merugikan ( anak anak yang sunguh -sungguh belajar) ada baiknya memang di evaluasi,,kasian jerih payahnya seolah-olah sia sia,,kalah dengan anak yang mungkin kurang belajar tapi rumahnya deket dgn sekolah</t>
-  </si>
-  <si>
-    <t>#sahabatdikbud Mendikbud memberikan pernyatan tentang zonasi lho. Karena sebuah peraturan itu pasti akan mengandung pro dan kontra #zonasi #ppdb #ppdb2018</t>
-  </si>
-  <si>
-    <t>Ini kata Mendikbud Muhadjir Effendy tentang zonasi. "Jangan sampai ada praktik jual beli kursi dan pungutan liar," tegasnya. #ppdb #ppdb2018 #zonasi #pendidikanuntuksemua</t>
-  </si>
-  <si>
-    <t>PPDB zonasi by meteran, by kantong orang tua sewa/beli rumah, bukan by prestasi anak dlm belajar.</t>
-  </si>
-  <si>
-    <t>alhamdulillah. ... majulah indonesia</t>
-  </si>
-  <si>
-    <t>Dulu thn 90an kita juga pernah punya Lesson Plan...sederhana tidak bertele-tele tp bagus banget.</t>
-  </si>
-  <si>
-    <t>Suueenneeeenggg aku klo kayak gini...
-Makin banyak wktu dg keluarga</t>
-  </si>
-  <si>
-    <t>RPP dibuatkan aplikasi di Smartphone biar mudah.</t>
-  </si>
-  <si>
-    <t>RPP hrs jelas, singkat dan real agar gr2 dpt membuatnya scr mandiri bkn hny copy paste lalu edit.</t>
-  </si>
-  <si>
-    <t>Mudah-mudahan dapat direalisasikan dengan baik Pak Menteri, dan bukan hanya RPP saja pak, namun adminitrasi yg lainnya. Saya pun berharap kurikulum kembali ke KTSP namun pembelajaran di kelas tetap berasaskan PAIKEM.</t>
-  </si>
-  <si>
-    <r>
-      <t>kalau bisa pak RPP nya ngratis dari pusat pendidikan seindonesia berupa kaset Cd atau flasdist biar kami dipelosok negeri seragam RPP nya dgn yang di pusat pendidikan.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>👍</t>
-    </r>
-  </si>
-  <si>
-    <t>Merdeka Belajar,, RPP 1 halaman utk teman2 Guru,,,</t>
-  </si>
-  <si>
-    <t>Bahagia bangeet, smg bnr2 bs terlaksana kebijakam model RPP yg sdh lama diidamkan itu 🤩</t>
-  </si>
-  <si>
-    <t>Tuh bu kepala.. Sylva Sagita siap siap dipanggil pembicara.. 😅 Dari dulu rpp yg ono sederhana pisan..</t>
-  </si>
-  <si>
-    <t>mantab abiar Guru Fokus mengajar Murid agar wakntunya tdk dihabiskan membuat Administrasi dan mengolah nilai tok</t>
-  </si>
-  <si>
-    <t>Kurangi Beban Guru, Rencana Pelaksanaan Pembelajaran (RPP) Cukup Satu Halaman</t>
-  </si>
-  <si>
-    <t>Mantab betul RPP ini semoga bisa terlaksana dengan baik #GebrakanNadiem</t>
-  </si>
-  <si>
-    <t>mantap mewakili perasaan dan keinginan guru guru alhamdulillah #GebrakanNadiem KEREN</t>
-  </si>
-  <si>
-    <t>Wah sangat bagus dan terarah sekali #GebakanNadiem</t>
-  </si>
-  <si>
-    <t>Jika ada isu RPP akn disederhanakan, apkh yakin ketika supervisi guru tidak akn lg dituntut untuk mngajar sesuai dngan waktu yg ditulis di RPP? Memberi dan melaksanakan materi cuma setengah jam kelenger juga Lo pak. Apalagi dgn kemampuan siswa yang berbeda-beda tiap kelasnya</t>
-  </si>
-  <si>
-    <t>Serius yang disederhanakan hanya penyusunan RPP saja? Bagaimana dengan perangkat mengajar /administrasi mengajar selain RPP? Ada silabus ada program tahunan,program semester,  ada pekan efektif ada analisa SK... https://www.facebook.com/100002919121927/posts/2594230334017579/ …</t>
-  </si>
-  <si>
-    <t>Kurikulum yg menurut saya berbelit, mmang perlu disederhanakan. Krn tidak semua guru/dosen mengerti dgn kurikulum, jgnkan kurikulum, silabus dan RPP saja msh bnyk yg gagal paham, RPP apalagi, masih bnyk yg comot di Internet. Pengalaman wkt kuliah dulu dan PPL di sebuah madrasah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ini ada konspirasi mas-mas fotocopi dan joki RPP </t>
-  </si>
-  <si>
-    <t>Zumairoh Faza kalu guru dah sejahtra. Jelas bisa maju. Tapi klau gini terus, mna bisa maju, honor di biarin, serti di persulit,</t>
-  </si>
-  <si>
-    <t>Pemerataan pendidikan aja dulu di seluruh indonesia. Dari fasilitas dan kualitas di daerah2 aja dulu pak dibenahi dan buat guru2 honorer yg udah mengabdi lbh dari 10th tlng diperhatikan kesejahteraannya.</t>
-  </si>
-  <si>
-    <t>Jangan lupa kurikulumnya Pak Menteri
-Banyak yang perlu direvisi
-Peringkat PISA Indonesia yang jelek salah satu penyebab utamanya di kurikulum</t>
-  </si>
-  <si>
-    <t>Apa iya 3 esensi RPP tujuan, kegiatan pembelajaran, assesmen bisa 1 lembar</t>
-  </si>
-  <si>
-    <t>Setiap kebijakan menteri imbasnya ya ke guru dan siswa,, asal jangan terus menerus jadi kelinci percobaan.</t>
-  </si>
-  <si>
-    <t>jika satu rpp untuk satu pertemuan mungkin bisa satu halaman, tapi jika lebih mungkin tidak dan tetap jika rpp 3 komponen belum holistik dan kaffah.</t>
-  </si>
-  <si>
-    <t>Merdeka Belajar Pilihan Cerdas
-Ujian Nasional dihapus mulai 2021. Ujian Sekolah Berstandar Nasional atau USBN yang berlaku selama ini akan diganti dengan ujian kelulusan yang diselenggarakan sekolah...</t>
-  </si>
-  <si>
-    <t>Mas Mendikbud Nadiem Makarim contoh Mentri yg mampu menerjemahkan visi presiden @jokowi yaitu SDM Unggul. Lewat terobosan positif dan inovatif "Merdeka Belajar" ada 4 poin yg dibenahi yaitu USBN, UN, RPP dan zonasi. Mari kita dukung bersama.
-Tagar kita
-#GarudaHartaTahtaDanWanita</t>
-  </si>
-  <si>
-    <t>Ini konsep detilnya.
-Silakan disimak..
-Kemungkinan memang akan butuh penjelasan krn benar2 hal yg baru...
-Berharap ini bisa benar2 mjd terobosan baru yg mmg dibutuhkan di dunia pendidikan Indonesia 
-https://edukasi.kompas.com/read/2019/12/11/14433351/ini-konsep-baru-un-dan-usbn-versi-merdeka-belajar-mendikbud-makarim?page=2 …</t>
-  </si>
-  <si>
-    <t>@WikiDPR #kom10 Abdul Hakim @Fraksi_PAN #jatim8:...Lalu merdeka belajar. Kira2 parameter apa utk pencapaian ini sdh dibilang merdeka belajar? Parameter minimumnya spt apa? Waktu yg diperlukan seberapa lama? Saya kasih rating 5 terkait wacana mengganti UN USBN krn...(2)</t>
-  </si>
-  <si>
-    <t>Gebrakan Nadiem Makarim dalam memajukan pendidikan di Indonesia dalam Kebijakan Merdeka Belajar yang meliputi USBN, UN, RPP dan PPDB.
-#MerdekaBelajar #NadiemMakarim #Pendidikan #edukasi #Indonesia #BersihkanKampusDariHTI pic.twitter.com/ARSFxz2rqV</t>
-  </si>
-  <si>
-    <t>Mas Nadiem Makarim contoh Mentri yg mampu menerjemahkan visi presiden @jokowi yaitu SDM unggul. Kebijakan Merdeka Belajar dgn 4 poin pentingnya yaitu tentang USBN, UN, RPP dan zonasi adl terobosan positif yg hrs kita dukung bersama.</t>
-  </si>
-  <si>
-    <t>Ada 4 program pokok dalam Kebijakan Pendidikan "Merdeka Belajar" yang ditetapkan Nadiem Makarim hari ini. Apa saja? 
-UN terakhir 2020, tahun 2021 sudah tidak ada UN, dan sistem zonasi lebih fleksibel
-https://kumparan.com/kumparanmom/kebijakan-baru-nadiem-makarim-soal-usbn-un-hingga-zonasi-sekolah-1sQKJXMKHDJ?utm_source=Twitter&amp;utm_medium=post&amp;utm_campaign=segmom …</t>
-  </si>
-  <si>
-    <t>Yes setuju dengan Assessment jadi kita bisa tau kemampuan dan keahlian anak ada dimana , Great Job</t>
-  </si>
-  <si>
-    <t>Setujuu ... Biar anak2 nggak kelamaan stressnya menekuni sesuatu yg nggak dia suka</t>
-  </si>
-  <si>
-    <t>klo nilai assessment nya bagus jd kartap di Gojekpic.twitter.com/SjZbnxA2Pe</t>
-  </si>
-  <si>
-    <t>Laboratorium pendidikan nasional di tangan mentri2 nya sukses apa tidak wallahuallam...</t>
-  </si>
-  <si>
-    <t>Gak ada niat hapus skripsi gitu ?</t>
-  </si>
-  <si>
-    <t>ya semoga besuk pas pergantian mentri (lagi), keputusan yg sekarang tidak dirubah lagi</t>
-  </si>
-  <si>
-    <t>Kompetensi minimum? Berarti ada passing grade nya dong,</t>
-  </si>
-  <si>
-    <t>Ini kalau model USBN yg buat sekolah masing2, seharusnya masuk SMP Negeri menggunakan tes akademik dan tes psikologi karena soal USBN sudah pasti berbeda2 standar kualitas antar SD. Utk itu jalur yg paling pas utk masuk SMP N adalah tes dengan soal yg dibuat oleh Diknas setempat supaya seragam.</t>
-  </si>
-  <si>
-    <t>Artinya pada tahun 2020 nanti soal-soal yg diujikan di USBN diserahkan/bisa dibuat oleh sekolah masing-masing?</t>
-  </si>
-  <si>
-    <t>wah, alasan putus karna UN bakal ilang, apakah yang kan menjadi pengganti?</t>
-  </si>
-  <si>
-    <t>1 lagi cara belajar disekolah lebih bnyak teori dr praktik</t>
-  </si>
-  <si>
-    <t>Ujian Nasional harus dilakukan tapi bukan seperti selama ini yg banyak pilihan ganda</t>
-  </si>
-  <si>
-    <t>Setuju keputusan pak mentri</t>
-  </si>
-  <si>
-    <t>ada niat hapus skripsi sama tesis gitu Pak?</t>
+    <t>RT @detikcom: "@jokowi ingin mendekatkan tema yang berat kali ini. Idelogi pemerintahan dengan bahasa anak muda, Dilan, digital melayani</t>
+  </si>
+  <si>
+    <t>RT @basukids: @Gerindra @jokowi Anuuu... pemahamannya kurang eh..
+#PrabowoBentengNKRI</t>
+  </si>
+  <si>
+    <t>RT @SahabatSeSurga: Bismillah @Jokowi_Amin menang pilpres. #PemerintahanDILAN https://t.co/uLKiEJqy39</t>
+  </si>
+  <si>
+    <t>RT @NonaCarina: Pasangan @jokowi dan @KHMarufAmin_ menunjukkan keseriusan melayani dengan konsep digital melayani, DILAN.
+@JajangRidwan19…</t>
+  </si>
+  <si>
+    <t>RT @rakyatrukun_: Menurut @jokowi satu suara dalam Pilpres sangat menentukan arah negara ini kedepan. Jangan Golput!
+https://t.co/RAaquCGS…</t>
+  </si>
+  <si>
+    <t>RT @xLoneWoIf: Inilah konsep kerjasama Indo-Pasifik. Nggak usah takut bakal makin banyak persaingan, krn @jokowi telah menyusun berbagai strategi</t>
+  </si>
+  <si>
+    <t>RT @bocahsosmed: Skor sementara 3-0 nih untuk #DebatKeempatPilpres2019 melalui berbagai sanggahan mematikan dari pakde @jokowi 
+@sukangetwe…</t>
+  </si>
+  <si>
+    <t>RT @rakyatrukun_: Presiden @jokowi mengajak rakyat Indonesia menggunakan hak pilihnya dalam pemilihan presiden dan pemilihan legislatif</t>
+  </si>
+  <si>
+    <t>RT @rakyatrukun_: Gaya Nyentrik @jokowi . Dari Kaos hingga Sarung, Sikap dan tampilannya yang sederhana adalah salah satu cara untuk bisa diterima oleh rakyat</t>
+  </si>
+  <si>
+    <t>RT @gw_eilo: Malam Pak @jokowi Pak @prabowo saya izin tidur ya Pak, ngantuk, debatnya membosankan.</t>
+  </si>
+  <si>
+    <t>RT @saididu: @ridlwanjogja @jokowi Ini surat suara pilpres 2014. Jangan warisi kebiasaan berbohong bhw Jokowi gunakan baju putih sejak 2014</t>
+  </si>
+  <si>
+    <t>RT @EllaZefa: TEKNOLOGI MEMBANTU RAKYAT.. setuju pak @jokowi saya smkn mendapatkan kemudahan kemudahan krn perkembangan teknologi</t>
+  </si>
+  <si>
+    <t>RT @melindakhairani: Mantuuul #PemerintahanDILAN @jokowi Menang! 👍 https://t.co/HF3rFVL7Dh</t>
+  </si>
+  <si>
+    <t>RT @CNNIDdaily: Capres nomor urut 01, @jokowi: Tapi masalah tuduh-menuduh saya kan juga banyak dituduh pak.
+#DebatCapres2019
+#DebatKeempat…</t>
+  </si>
+  <si>
+    <t>RT @QyuMuchl: Berbeda makanan kesukaan, namun kita krekk dan berjuang bersama mendukung dan memilih @jokowi #01DILANjutkan lagi.</t>
+  </si>
+  <si>
+    <t>RT @bung_syamjaya: Yang paling penting adalah bagaimana kita Membumikan Pancasila....
+Kata Pak @jokowi 
+#01DILANjutkan</t>
+  </si>
+  <si>
+    <t>RT @andreOPA: @Jokowi: Marilah bersama-sama membumikan Pancasila dalam kehidupan sehari-hari, pemimpin-pemimpin bisa memberikan contoh yang baik</t>
+  </si>
+  <si>
+    <t>RT @AfrianFikri: kami laik besar diri dengan segenap penampilan dan kepemimpinannya @jokowi. sampai-sampai di ulasan oleh dunia.</t>
+  </si>
+  <si>
+    <t>RT @MahasiswaUNJ: Semua aspek benar-benar dipikirkan @jokowi. Penyediaan creative space adalah hal yg tepat agar kita semua lbh aware</t>
+  </si>
+  <si>
+    <t>RT @SyifaZ6: @JajangRidwan19 @jokowi Insya ALLAH 01 menang 
+#01JokowiAmin 
+#01IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>RT @SianturiRiska: Kerjasama Ekonomi Indonesia dengan Arab Saudi, sudah bukti bahwa pak @jokowi telah memberikan yg terbaik</t>
+  </si>
+  <si>
+    <t>RT @Lindaaahah: Kalau saya sih pilih yang pasti-pasti aja, pak @jokowi sudah terbukti mampu memimpin negara ini #01DILANjutkan</t>
+  </si>
+  <si>
+    <t>RT @BobYonathan: #PemerintahanDILAN 
+Terima banyak kepada yg terhormat pak dhe @Jokowi sudah banyak melakukan kebijakan dari aspek infrastruktur</t>
+  </si>
+  <si>
+    <t>RT @IndahwidIndah: Lihat data ini! Di era @jokowi anggaran HANKAM kita lebih maju dibandingkan negara lain. #PemerintahanDILAN</t>
+  </si>
+  <si>
+    <t>RT @NVinsya: Duduk di kepemerintahan aja lom pernah udah ngemeng soal pemerintahan,, bom terus pakde @jokowi biar om wowo jgn asal bicara</t>
+  </si>
+  <si>
+    <t>RT @ttyuw: #PemerintahanDILAN 
+Berikut adalah contoh manfaat sistem berbasis elektronik.
+@jokowi @KHMarufAmin_ https://t.co/8SXyBgzaE2</t>
+  </si>
+  <si>
+    <t>RT @unknownzoel_: Saya lihat pak @prabowo tidak percaya oleh TNI kita , 
+"Quotes from @jokowi 2019"
+#prabowotidakpercaya
+#DebatAsyikJokowi…</t>
+  </si>
+  <si>
+    <t>RT @ArnastyaNadya: #PemerintahanDILAN 
+Presiden @jokowi  selalu mendorong kegiatan UMKM Go-Online tentunya tidak hanya dukungan saja akan…</t>
+  </si>
+  <si>
+    <t>RT @melindakhairani: Pakde @jokowi : Menjadi kewajiban kita bersama untuk menjaga merawat dan menjalankan Pancasila dalam kehidupan sehari-hari</t>
+  </si>
+  <si>
+    <t>RT @samsul_ibr: @jokowi yang sipil saja sangat percaya TNI.  Masa capres 02 meragukan TNI? 
+#PemerintahanDILAN https://t.co/9nDkgotDOX</t>
+  </si>
+  <si>
+    <t>RT @DaraArlinda: @jokowi juga menyinggung soal kualitas sumber daya manusia yang baik dalam menjalankan birokrasi</t>
+  </si>
+  <si>
+    <t>RT @nadiamanda__: akumah yang optimis optimis ajah lah, ya gak ngerendahin rakyat sendiri. hidup pak @jokowi 
+01 pasti menang</t>
+  </si>
+  <si>
+    <t>RT @AdaCeuceu: emang bangsad sih kalo ada yang masih meragukan keisalaman doi, wong @jokowi masuk kdalam track 50 muslim berpengaruh.</t>
+  </si>
+  <si>
+    <t>RT @Adanadiatuh: "Negara yang cepat akan menguasai negara yang lambat" - @jokowi 
+#PemerintahanDILAN</t>
+  </si>
+  <si>
+    <t>RT @akuratco: Segmen 2 jawaban @jokowi: Yg ketiga, diperlukan peningkatan kualitas ASN, sehingga bisa melayani dengan cepat.</t>
+  </si>
+  <si>
+    <t>RT @rakabob1: @jokowi: Pancasila adalah kesepakatan para pendiri bangsa dari berbagai daerah, berbagai organisasi, berbagai ras, berbagai suku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @Bungkus_Boneka: Kapal selam chanbogo kelas itu di pesan di era @SBYudhoyono bukan di era mu hey @jokowi malu dong anda </t>
+  </si>
+  <si>
+    <t>RT @mmymurni: @mutasbaelah @jokowi @prabowo Yg jelas dlm.pemerintahan @jokowi kekayaan  Indonesia bnyk yg diselamatkan..freeport..dll</t>
+  </si>
+  <si>
+    <t>RT @Deisymeghangma1: ceria pertahanan dan keamanan dalam Negeri membaik.  #DebatAsyikJokowi https://t.co/PWKgnDL09a  @Dani_L_Kub @Jokowi</t>
+  </si>
+  <si>
+    <t>RT @trenzsolo: "Pak Prabowo ini tidak percaya pada TNI kita !!" Kick telak @jokowi atas pernyataan Prabowo soal pertahananan RI</t>
+  </si>
+  <si>
+    <t>RT @Tanianiaaa10: Di pemerintahan pak @jokowi berhasil berdiri 4 unicorn lho! #PemerintahanDILAN https://t.co/j0769J7cHg</t>
+  </si>
+  <si>
+    <t>RT @milenial_kaum: @kangdede78 @jokowi #PemerintahanDILAN makin mempermudah warganya, tidak seperti bapak sombong yang selalu mengulang masa lalu</t>
+  </si>
+  <si>
+    <t>RT @SufiHoax: @RaylaKusrorong @jokowi 17 April Jokowi menang #01DILANjutkan</t>
+  </si>
+  <si>
+    <t>RT @Ernijasin: @Paltiwest @jokowi @NaneDianti Mantul Pakde menang Telak #DebatAsyikJokowi #JokowiMenangDebat</t>
+  </si>
+  <si>
+    <t>RT @bseptian15: @TeddyGusnaidi @prabowo @Gerindra Sekarang berani tidak pak @Jokowi menolak pak Yusril masuk ke kubunya</t>
+  </si>
+  <si>
+    <t>RT @Galuh_kancil: Masalah tuduh-menuduh, 4,5 tahun ini saya dituduh Pak @jokowi itu PKI, saya biasa-biasa saja nggak pernah saja jawab.</t>
+  </si>
+  <si>
+    <t>RT @layarperak21: Betapa hebatnya sosok presiden kita, @jokowi. Demi mendapatkan haknya, ia mati-matian membela Taah Air. Salut!</t>
+  </si>
+  <si>
+    <t>RT @AryPrasetyo_85: Percayalah Pak @jokowi
+Saat mulut2 kotor memfitnah mu
+Rakyat kan sellu mendoakan mu
+Saat tangan2 kotor mengotori baliho…</t>
+  </si>
+  <si>
+    <t>RT @TriniHantrini: #KuSukaJokowiAmin , teladan yang baik itu adanya pada pak @jokowi , makanya banyak yang secara "sengaja" meniru gaya bapak</t>
+  </si>
+  <si>
+    <t>RT @kuas_kuis: Yang sudah sangat kesusahan aja dipikirin. Masa kita-kita enggak? Bukti @jokowi pedulinya nggak pandang bulu!</t>
+  </si>
+  <si>
+    <t>RT @densha_foxtrot: Pakdhe @jokowi kalo pakdhe punya program pengadaan rudal balistik ogut dukung pakdhe lahir batin</t>
+  </si>
+  <si>
+    <t>RT @AlvinoLulu: @woelannnn @jokowi Duch sejuknya lihat Bpk dan Ibu Iriana ,apalagi gendong sedah Mirah ❤️
+Beliau orang nomer SATU bgtu Super</t>
+  </si>
+  <si>
+    <t>RT @1blackcoffee888: #DebatAsyikJokowi 
+Visi @jokowi adalah Indonesia Maju. Kami tawarkan optimisme &amp;amp; masa depan Indonesia yg berkeadilan</t>
+  </si>
+  <si>
+    <t>RT @woelannnn: Jelang berangkat ke Hotel Shangrila, pak @jokowi bagikan pulpen ke wartawan.
+Tetangga ga dikasih pak ? 😁
+#PemerintahanDILAN…</t>
+  </si>
+  <si>
+    <t>RT @matjanku: #PeemerintahanDILAN akan membuat pemerintah bisa melayani dengan cepat dan efisien. Joss @jokowi https://t.co/daV4DSFSVN</t>
+  </si>
+  <si>
+    <t>RT @BagusStefanus: Ketika @jokowi memberikan solusi untuk menyongsong era digitalisasi yang cepat dan efektif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @RumahJokowi: Dalam melayani rakyat, pemerintah akan memperpendek alur sehingga pelayanannya menjadi cepat dan efektif. @jokowi </t>
+  </si>
+  <si>
+    <t>RT @Kartikaribet: Presiden @jokowi yang selalu mendorong kegiatan UMKM Go-Online tentunya tidak hanya dukungan saja akan tetapi juga fasilitas</t>
+  </si>
+  <si>
+    <t>RT @01_AnakMilenial: Pak @jokowi berbicara bukan asal bunyi saja, beliau berbicara tentu dengan pemikiran yg matang dan berkualitas.</t>
+  </si>
+  <si>
+    <t>RT @RumahJokowi: Semua masalah bisa diatasi, dan tidak semuanya hrs tergantung pemerintah. Krn orang Indonesia itu tangguh.</t>
+  </si>
+  <si>
+    <t>RT @1blackcoffee888: #DebatAsyikJokowi 
+Utk membangun kekuatan pertahanan RI, @jokowi telah membangun postur &amp;amp; memodernkan alutsista TNI</t>
+  </si>
+  <si>
+    <t>RT @malaikat_Papua: @jokowi Say NO to GOLPUT. Ayoo..gunakan hak pilih qt utk kebaikan bangsa !!
+Tp jgn lupa jg, qt SATUkan suara utk Indonesia</t>
+  </si>
+  <si>
+    <t>RT @Bangalexlah: Pak @jokowi sangat mendukung perkembangan ekonomi digital. Melalui #PemerintahanDILAN  ia berusaha memelihara start up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @1blackcoffee888: #DebatAsyikJokowi
+Presiden @jokowi salah satu panutan pemimpin dunia saat ini - PM Australia
+#DebatAsyikJokowi </t>
+  </si>
+  <si>
+    <t>RT @Galuh_kancil: @jokowi
+Ke depan kita perlu meningkatkan kualitas ASN agar pelayanannya cepat.
+#PemerintahanDILAN https://t.co/UEambVwFda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @oceanflyer1: @sewordcom @jokowi Kubu 02 makan fitnah serasa menghirup oksigen. Sekali tidak baca fitnah, mrk langsung pingsan. </t>
+  </si>
+  <si>
+    <t>RT @ms_kumkum_Ie: @sewordcom @jokowi Ya ampuunn ibu Iriana serasa rakyat biasa yaa.. abis terjatuh malah senyum2 pepotohan lagi..</t>
+  </si>
+  <si>
+    <t>RT @FaGtng: Kondisi KA, dulu...
+Sangat rentan kecelakaan.
+Tidak nyaman.
+KA era @jokowi mantap..
+Nyaman..keren 👍🏻 #KarnaJokowi</t>
+  </si>
+  <si>
+    <t>RT @Savior70134021: @sewordcom @jokowi Tetap semangat dan kompak selalu pakde &amp;amp; bude..GBU always 🙏🙏👍👍</t>
+  </si>
+  <si>
+    <t>RT @Eddianto1: @sewordcom @jokowi Mereka bilang apa "Istri aja diceraiin, apalagi rakyat"
+Nyatanya, prabowo mengangkat bu titiek cuma saat jadi menantu presiden</t>
+  </si>
+  <si>
+    <t>RT @Nurul71794530: #DebatAsyikJokowi  pancasila akan tetap terjaga dan tetap ada di bawah kepemimpinan Jokowi    @jokowi  @Barna_byo</t>
+  </si>
+  <si>
+    <t>RT @blontankpoer: sistem teknologi membuat birokrasi terpangkas, pelayanan publik jadi lebih cepat, efisien, transparan.</t>
+  </si>
+  <si>
+    <t>RT @Paltiwest: Itulah hebatnya @jokowi.. Bukan hanya berjanji tetapi membuktikan tidak heran #JokowiMengubahSemua menjadi lebih baik.</t>
+  </si>
+  <si>
+    <t>RT @Paltiwest: #JokowiMengubahSemua dan @jokowi telah berhasil menyelamatkan banyak WNI selama 4 tahun ini.. Mantul..
+@RizmaWidiono</t>
+  </si>
+  <si>
+    <t>RT @AmandaSpotify: Dilihat dari visi misi yang di paparkan terlihat bahwa @jokowi berani untuk melihat kedepan.</t>
+  </si>
+  <si>
+    <t>RT @SianturiRiska: Visi - Misi Pak Presiden @jokowi Adalah kedepannya Indonesia membutuhkan Pemerintahan ( Digital Melayani )</t>
+  </si>
+  <si>
+    <t>RT @WandanaE36: @annisarama9 @jokowi Iyaa dong. Kebersamaan untuk mendukung pak @jokowi sangat menggebu2 di sini. Demi #01IndonesiaMaju</t>
+  </si>
+  <si>
+    <t>RT @QyuMuchl: @AjiMujahid @Dwichaerulmau @jokowi @susipudjiastuti @MurtadhaOne @Laylaku_ @LinNasution Hidup berbangsa pun terasa bahagia</t>
+  </si>
+  <si>
+    <t>RT @fardelynhacky1: Semangaaaaaat Pak @jokowi menjalani Debat Capres keempat. 
+#01DILANjutkan. Kami mendukungmu. Go go go?</t>
+  </si>
+  <si>
+    <t>RT @Widiast32861669: @fadlizon @jokowi @prabowo Pokoknya pak @prabowo  mantul banget...mantap betul...</t>
+  </si>
+  <si>
+    <t>RT @RigunDL: Ga akan ada Ideologi apapun selain Pancasila, dan Pakde @jokowi akan memberantas oknum2 yg mengganggu keutuhan manusia #Jokowi</t>
+  </si>
+  <si>
+    <t>RT @ClarissaInd: Sudah terbukti bapak @jokowi  hanya korban fitnah. Politik jangan gitu-gitu amat. Malu tau 😬😬😬
+@woelannnn @BiLLRaY_</t>
+  </si>
+  <si>
+    <t>RT @Kang_wi: Jokowi Menjawab akan perubahan &amp;amp; tantangan pemerintahan dalam menghadapi era IOT, bapak @jokowi layak #01DILANjutkan</t>
+  </si>
+  <si>
+    <t>RT @ArnastyaNadya: #PemerintahanDILAN pak @jokowi terus mendorong masyarakat untuk beralih dari UMKM Konvensional ke Online.</t>
+  </si>
+  <si>
+    <t>RT @ClarissaInd: Pak @jokowi orang nya setrong 😍😍😍
+@BiLLRaY_ @woelannnn @rakyatrukun_ @R_GUN4W4N https://t.co/rlCYQsmHgB</t>
+  </si>
+  <si>
+    <t>RT @papajahat_3gp: @prabowo : saya dituduh radikal
+@jokowi : saya dituduh PKI https://t.co/WPGnjnHtGr</t>
+  </si>
+  <si>
+    <t>RT @jokowi: "PKI, antek asing, anti-Islam, anti-ulama, akan melarang azan, menghapus pelajaran agama.” Itu sebagian fitnah dan hoaks kepada jokowi</t>
+  </si>
+  <si>
+    <t>RT @tampanakutu19: Ini debat wok, ngapa jadi curhat, yg dituduh di fitnah pak @jokowi ngapa owok yg sedih ckckc
+#PemerintahanDILAN</t>
+  </si>
+  <si>
+    <t>RT @ttyuw: #PemerintahanDILAN
+Dengan kecepatan teknologi, Indonesia diharapkan menjadi negara yg cepat. 
+Optimis Indonesia maju!
+@jokowi</t>
+  </si>
+  <si>
+    <t>RT @alpinsi_pandi: Nonton debat capres ini @jokowi makin mantap dalam penjabaran n. Penjelasan ... Mantul 💪💪💪 https://t.co/zeeH78MeE9</t>
+  </si>
+  <si>
+    <t>RT @teresaracel: JOKOWI GOQIL 
+ini perbandingan foto pak @Jokowi dan presiden sebelumnya yang menentukan kekuatan hubungan internasional.</t>
+  </si>
+  <si>
+    <t>RT @annisarama9: @WandanaE36 @jokowi Waah saking cintanya dengan pak @jokowi para pendukung sampe ngadain nobar, terharuu</t>
+  </si>
+  <si>
+    <t>RT @MahesaTiwi: Kehidupan PNS makin mantul di era @jokowi ! #JokowiMengubahSemua #01Jokowi3PDIP #PDIPerjuanganM3nang 
+@Barna_byo</t>
+  </si>
+  <si>
+    <t>RT @putricampa: Di Pemerintahan pak @jokowi semua lini dapat perhatian, salah satunya peningkatan kualitas SDM TNI yang sangat diperlukan.</t>
+  </si>
+  <si>
+    <t>RT @YulianaLeka: Sesuatu hal yang baru slalu diciptakan oleh pak @jokowi demi membantu masyarakatnya. Kami bangga memilikimu #01DILANjutkan</t>
+  </si>
+  <si>
+    <t>RT @SRufamin: Kerja sama dengan negara lain terus dilakukan @jokowi.. #JokowiMengubahSemua kerja sama memberikan manfaat yang lebih baik.</t>
+  </si>
+  <si>
+    <t>RT @lensaRTV: Tanggapan @jokowi: Intinya adalah kecepatan. Negara yang cepat akan menguasai negara yang lambat.</t>
+  </si>
+  <si>
+    <t>RT @akuratco: .@jokowi ke @prabowo: Tidak saling menghujat, menghina, meremehkan, menjelekkan.Yg itu sekarang ini kita lihat.</t>
+  </si>
+  <si>
+    <t>RT @tampanakutu19: Karena zaman semakin maju, makannya pak @jokowi meluncurkan #PemerintahanDILAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,13 +398,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -430,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,36 +782,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0115-B5DE-4EA8-AEF5-1DB984236674}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="152.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -822,71 +820,71 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -894,11 +892,11 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -906,23 +904,23 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -930,11 +928,11 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" t="s">
         <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -942,23 +940,23 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -966,35 +964,35 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -1002,11 +1000,11 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1014,35 +1012,35 @@
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
       </c>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -1050,11 +1048,11 @@
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -1062,23 +1060,23 @@
       <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -1086,11 +1084,11 @@
       <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
       </c>
       <c r="D25" s="5"/>
     </row>
@@ -1098,11 +1096,11 @@
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>16</v>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="5"/>
     </row>
@@ -1110,23 +1108,23 @@
       <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>16</v>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -1134,23 +1132,23 @@
       <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>16</v>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>16</v>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
       </c>
       <c r="D30" s="5"/>
     </row>
@@ -1158,47 +1156,47 @@
       <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
       </c>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>15</v>
+      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
       </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>15</v>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
       </c>
       <c r="D34" s="5"/>
     </row>
@@ -1206,11 +1204,11 @@
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>15</v>
+      <c r="B35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
       </c>
       <c r="D35" s="5"/>
     </row>
@@ -1218,35 +1216,35 @@
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
       </c>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>15</v>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -1254,35 +1252,35 @@
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>15</v>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
       </c>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>15</v>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
       </c>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
       </c>
       <c r="D41" s="5"/>
     </row>
@@ -1290,11 +1288,11 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
       </c>
       <c r="D42" s="5"/>
     </row>
@@ -1302,47 +1300,47 @@
       <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>15</v>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>15</v>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
       </c>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>15</v>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1350,11 +1348,11 @@
       <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>15</v>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -1362,11 +1360,11 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>16</v>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -1374,11 +1372,11 @@
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -1386,11 +1384,11 @@
       <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
       </c>
       <c r="D50" s="5"/>
     </row>
@@ -1398,11 +1396,11 @@
       <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>16</v>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -1410,35 +1408,35 @@
       <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>16</v>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>16</v>
+      <c r="B53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>16</v>
+      <c r="B54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1446,23 +1444,23 @@
       <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>16</v>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>16</v>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
       </c>
       <c r="D56" s="5"/>
     </row>
@@ -1470,11 +1468,11 @@
       <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>16</v>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -1482,11 +1480,11 @@
       <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>15</v>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
       </c>
       <c r="D58" s="5"/>
     </row>
@@ -1494,23 +1492,23 @@
       <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>15</v>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>15</v>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
       </c>
       <c r="D60" s="5"/>
     </row>
@@ -1518,23 +1516,23 @@
       <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>15</v>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>15</v>
+      <c r="B62" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
       </c>
       <c r="D62" s="5"/>
     </row>
@@ -1542,35 +1540,35 @@
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>15</v>
+      <c r="B63" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>15</v>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>15</v>
+      <c r="B65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
       </c>
       <c r="D65" s="5"/>
     </row>
@@ -1578,11 +1576,11 @@
       <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>15</v>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
       </c>
       <c r="D66" s="5"/>
     </row>
@@ -1590,11 +1588,11 @@
       <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>15</v>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
       </c>
       <c r="D67" s="5"/>
     </row>
@@ -1602,23 +1600,23 @@
       <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>15</v>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
       </c>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>15</v>
+      <c r="B69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
       </c>
       <c r="D69" s="5"/>
     </row>
@@ -1626,23 +1624,23 @@
       <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>15</v>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
       </c>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>15</v>
+      <c r="B71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
       </c>
       <c r="D71" s="5"/>
     </row>
@@ -1650,35 +1648,35 @@
       <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>15</v>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
       </c>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>16</v>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>16</v>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
       </c>
       <c r="D74" s="5"/>
     </row>
@@ -1686,11 +1684,11 @@
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>16</v>
+      <c r="B75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
       </c>
       <c r="D75" s="5"/>
     </row>
@@ -1698,11 +1696,11 @@
       <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>16</v>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
       </c>
       <c r="D76" s="5"/>
     </row>
@@ -1710,47 +1708,47 @@
       <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>16</v>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
       </c>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>16</v>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>16</v>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
       </c>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>16</v>
+      <c r="B80" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
       </c>
       <c r="D80" s="5"/>
     </row>
@@ -1758,11 +1756,11 @@
       <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>16</v>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
       </c>
       <c r="D81" s="5"/>
     </row>
@@ -1770,107 +1768,107 @@
       <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>16</v>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>15</v>
+      <c r="B83" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>15</v>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>15</v>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
       </c>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>15</v>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
       </c>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>15</v>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
       </c>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>15</v>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
       </c>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>15</v>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>15</v>
+      <c r="B90" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
       </c>
       <c r="D90" s="5"/>
     </row>
@@ -1878,23 +1876,23 @@
       <c r="A91" s="4">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>15</v>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>16</v>
+      <c r="B92" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
       </c>
       <c r="D92" s="5"/>
     </row>
@@ -1902,23 +1900,23 @@
       <c r="A93" s="4">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>16</v>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
       </c>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>16</v>
+      <c r="B94" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
       </c>
       <c r="D94" s="5"/>
     </row>
@@ -1926,23 +1924,23 @@
       <c r="A95" s="4">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>16</v>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>16</v>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
       </c>
       <c r="D96" s="5"/>
     </row>
@@ -1950,11 +1948,11 @@
       <c r="A97" s="4">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>16</v>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
       </c>
       <c r="D97" s="5"/>
     </row>
@@ -1962,11 +1960,11 @@
       <c r="A98" s="4">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>16</v>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
       </c>
       <c r="D98" s="5"/>
     </row>
@@ -1974,11 +1972,11 @@
       <c r="A99" s="4">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>16</v>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
       </c>
       <c r="D99" s="5"/>
     </row>
@@ -1986,11 +1984,11 @@
       <c r="A100" s="4">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>16</v>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
       </c>
       <c r="D100" s="5"/>
     </row>
@@ -1998,11 +1996,11 @@
       <c r="A101" s="4">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>16</v>
+      <c r="B101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
       </c>
       <c r="D101" s="5"/>
     </row>

--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\THESIS\PROJECT_SENTIMENMB\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0683CD-E483-4EBE-AF8F-065DEFCF9E89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571D453-BFCD-4BFC-BDC7-D008452512A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$101</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0115-B5DE-4EA8-AEF5-1DB984236674}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +817,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -838,7 +843,9 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -850,7 +857,9 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -862,7 +871,9 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -874,7 +885,9 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -886,7 +899,9 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -898,7 +913,9 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -910,7 +927,9 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -946,7 +965,9 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -958,7 +979,9 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -970,7 +993,9 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -982,7 +1007,9 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -994,7 +1021,9 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1006,7 +1035,9 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1018,7 +1049,9 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1030,7 +1063,9 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1042,7 +1077,9 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1054,7 +1091,9 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1066,7 +1105,9 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1078,7 +1119,9 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1090,7 +1133,9 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1114,7 +1159,9 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1138,7 +1185,9 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1150,7 +1199,9 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1162,7 +1213,9 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1174,7 +1227,9 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1186,7 +1241,9 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1198,7 +1255,9 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1210,7 +1269,9 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1222,7 +1283,9 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1234,7 +1297,9 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1258,7 +1323,9 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1270,7 +1337,9 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1282,7 +1351,9 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -1294,7 +1365,9 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1318,7 +1391,9 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -1330,7 +1405,9 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1342,7 +1419,9 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1366,7 +1445,9 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1378,7 +1459,9 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1390,7 +1473,9 @@
       <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1414,7 +1499,9 @@
       <c r="C52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1426,7 +1513,9 @@
       <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1438,7 +1527,9 @@
       <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -1450,7 +1541,9 @@
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -1462,7 +1555,9 @@
       <c r="C56" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -1474,7 +1569,9 @@
       <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -1486,7 +1583,9 @@
       <c r="C58" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -1498,7 +1597,9 @@
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -1510,7 +1611,9 @@
       <c r="C60" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -1522,7 +1625,9 @@
       <c r="C61" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -1534,7 +1639,9 @@
       <c r="C62" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -1546,7 +1653,9 @@
       <c r="C63" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -1558,7 +1667,9 @@
       <c r="C64" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -1570,7 +1681,9 @@
       <c r="C65" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -1582,7 +1695,9 @@
       <c r="C66" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -1606,7 +1721,9 @@
       <c r="C68" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -1618,7 +1735,9 @@
       <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -1630,7 +1749,9 @@
       <c r="C70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -1654,7 +1775,9 @@
       <c r="C72" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -1666,7 +1789,9 @@
       <c r="C73" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -1678,7 +1803,9 @@
       <c r="C74" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -1690,7 +1817,9 @@
       <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -1702,7 +1831,9 @@
       <c r="C76" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
@@ -1714,7 +1845,9 @@
       <c r="C77" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
@@ -1726,7 +1859,9 @@
       <c r="C78" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
@@ -1738,7 +1873,9 @@
       <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
@@ -1750,7 +1887,9 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -1762,7 +1901,9 @@
       <c r="C81" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -1786,7 +1927,9 @@
       <c r="C83" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -1798,7 +1941,9 @@
       <c r="C84" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -1810,7 +1955,9 @@
       <c r="C85" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -1822,7 +1969,9 @@
       <c r="C86" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -1870,7 +2019,9 @@
       <c r="C90" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -1882,7 +2033,9 @@
       <c r="C91" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -1894,7 +2047,9 @@
       <c r="C92" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -1906,7 +2061,9 @@
       <c r="C93" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="5"/>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -1918,7 +2075,9 @@
       <c r="C94" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="5"/>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
@@ -1930,7 +2089,9 @@
       <c r="C95" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="5"/>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -1942,7 +2103,9 @@
       <c r="C96" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
@@ -1954,7 +2117,9 @@
       <c r="C97" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="5"/>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
@@ -1966,7 +2131,9 @@
       <c r="C98" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="5"/>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -1978,7 +2145,9 @@
       <c r="C99" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
@@ -1990,7 +2159,9 @@
       <c r="C100" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
@@ -2002,13 +2173,18 @@
       <c r="C101" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="5"/>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="5">
+        <f>SUM(D2:D101)</f>
+        <v>85</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -3925,6 +4101,7 @@
       <c r="D421" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C101" xr:uid="{7DEC3C8F-F9E1-4F19-88CE-2450E2D67752}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\THESIS\PROJECT_SENTIMENMB\Sentiment_merdeka_belajar\data_uji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571D453-BFCD-4BFC-BDC7-D008452512A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CD54C-3D95-4776-9F46-DDCF97EFC8BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$102</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>label</t>
   </si>
@@ -241,100 +241,14 @@
     <t>RT @Kartikaribet: Presiden @jokowi yang selalu mendorong kegiatan UMKM Go-Online tentunya tidak hanya dukungan saja akan tetapi juga fasilitas</t>
   </si>
   <si>
-    <t>RT @01_AnakMilenial: Pak @jokowi berbicara bukan asal bunyi saja, beliau berbicara tentu dengan pemikiran yg matang dan berkualitas.</t>
-  </si>
-  <si>
-    <t>RT @RumahJokowi: Semua masalah bisa diatasi, dan tidak semuanya hrs tergantung pemerintah. Krn orang Indonesia itu tangguh.</t>
-  </si>
-  <si>
-    <t>RT @1blackcoffee888: #DebatAsyikJokowi 
-Utk membangun kekuatan pertahanan RI, @jokowi telah membangun postur &amp;amp; memodernkan alutsista TNI</t>
-  </si>
-  <si>
-    <t>RT @malaikat_Papua: @jokowi Say NO to GOLPUT. Ayoo..gunakan hak pilih qt utk kebaikan bangsa !!
-Tp jgn lupa jg, qt SATUkan suara utk Indonesia</t>
-  </si>
-  <si>
-    <t>RT @Bangalexlah: Pak @jokowi sangat mendukung perkembangan ekonomi digital. Melalui #PemerintahanDILAN  ia berusaha memelihara start up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT @1blackcoffee888: #DebatAsyikJokowi
-Presiden @jokowi salah satu panutan pemimpin dunia saat ini - PM Australia
-#DebatAsyikJokowi </t>
-  </si>
-  <si>
-    <t>RT @Galuh_kancil: @jokowi
-Ke depan kita perlu meningkatkan kualitas ASN agar pelayanannya cepat.
-#PemerintahanDILAN https://t.co/UEambVwFda</t>
-  </si>
-  <si>
     <t xml:space="preserve">RT @oceanflyer1: @sewordcom @jokowi Kubu 02 makan fitnah serasa menghirup oksigen. Sekali tidak baca fitnah, mrk langsung pingsan. </t>
-  </si>
-  <si>
-    <t>RT @ms_kumkum_Ie: @sewordcom @jokowi Ya ampuunn ibu Iriana serasa rakyat biasa yaa.. abis terjatuh malah senyum2 pepotohan lagi..</t>
-  </si>
-  <si>
-    <t>RT @FaGtng: Kondisi KA, dulu...
-Sangat rentan kecelakaan.
-Tidak nyaman.
-KA era @jokowi mantap..
-Nyaman..keren 👍🏻 #KarnaJokowi</t>
-  </si>
-  <si>
-    <t>RT @Savior70134021: @sewordcom @jokowi Tetap semangat dan kompak selalu pakde &amp;amp; bude..GBU always 🙏🙏👍👍</t>
   </si>
   <si>
     <t>RT @Eddianto1: @sewordcom @jokowi Mereka bilang apa "Istri aja diceraiin, apalagi rakyat"
 Nyatanya, prabowo mengangkat bu titiek cuma saat jadi menantu presiden</t>
   </si>
   <si>
-    <t>RT @Nurul71794530: #DebatAsyikJokowi  pancasila akan tetap terjaga dan tetap ada di bawah kepemimpinan Jokowi    @jokowi  @Barna_byo</t>
-  </si>
-  <si>
-    <t>RT @blontankpoer: sistem teknologi membuat birokrasi terpangkas, pelayanan publik jadi lebih cepat, efisien, transparan.</t>
-  </si>
-  <si>
-    <t>RT @Paltiwest: Itulah hebatnya @jokowi.. Bukan hanya berjanji tetapi membuktikan tidak heran #JokowiMengubahSemua menjadi lebih baik.</t>
-  </si>
-  <si>
-    <t>RT @Paltiwest: #JokowiMengubahSemua dan @jokowi telah berhasil menyelamatkan banyak WNI selama 4 tahun ini.. Mantul..
-@RizmaWidiono</t>
-  </si>
-  <si>
-    <t>RT @AmandaSpotify: Dilihat dari visi misi yang di paparkan terlihat bahwa @jokowi berani untuk melihat kedepan.</t>
-  </si>
-  <si>
-    <t>RT @SianturiRiska: Visi - Misi Pak Presiden @jokowi Adalah kedepannya Indonesia membutuhkan Pemerintahan ( Digital Melayani )</t>
-  </si>
-  <si>
-    <t>RT @WandanaE36: @annisarama9 @jokowi Iyaa dong. Kebersamaan untuk mendukung pak @jokowi sangat menggebu2 di sini. Demi #01IndonesiaMaju</t>
-  </si>
-  <si>
-    <t>RT @QyuMuchl: @AjiMujahid @Dwichaerulmau @jokowi @susipudjiastuti @MurtadhaOne @Laylaku_ @LinNasution Hidup berbangsa pun terasa bahagia</t>
-  </si>
-  <si>
-    <t>RT @fardelynhacky1: Semangaaaaaat Pak @jokowi menjalani Debat Capres keempat. 
-#01DILANjutkan. Kami mendukungmu. Go go go?</t>
-  </si>
-  <si>
-    <t>RT @Widiast32861669: @fadlizon @jokowi @prabowo Pokoknya pak @prabowo  mantul banget...mantap betul...</t>
-  </si>
-  <si>
     <t>RT @RigunDL: Ga akan ada Ideologi apapun selain Pancasila, dan Pakde @jokowi akan memberantas oknum2 yg mengganggu keutuhan manusia #Jokowi</t>
-  </si>
-  <si>
-    <t>RT @ClarissaInd: Sudah terbukti bapak @jokowi  hanya korban fitnah. Politik jangan gitu-gitu amat. Malu tau 😬😬😬
-@woelannnn @BiLLRaY_</t>
-  </si>
-  <si>
-    <t>RT @Kang_wi: Jokowi Menjawab akan perubahan &amp;amp; tantangan pemerintahan dalam menghadapi era IOT, bapak @jokowi layak #01DILANjutkan</t>
-  </si>
-  <si>
-    <t>RT @ArnastyaNadya: #PemerintahanDILAN pak @jokowi terus mendorong masyarakat untuk beralih dari UMKM Konvensional ke Online.</t>
-  </si>
-  <si>
-    <t>RT @ClarissaInd: Pak @jokowi orang nya setrong 😍😍😍
-@BiLLRaY_ @woelannnn @rakyatrukun_ @R_GUN4W4N https://t.co/rlCYQsmHgB</t>
   </si>
   <si>
     <t>RT @papajahat_3gp: @prabowo : saya dituduh radikal
@@ -348,42 +262,131 @@
 #PemerintahanDILAN</t>
   </si>
   <si>
-    <t>RT @ttyuw: #PemerintahanDILAN
-Dengan kecepatan teknologi, Indonesia diharapkan menjadi negara yg cepat. 
-Optimis Indonesia maju!
-@jokowi</t>
-  </si>
-  <si>
-    <t>RT @alpinsi_pandi: Nonton debat capres ini @jokowi makin mantap dalam penjabaran n. Penjelasan ... Mantul 💪💪💪 https://t.co/zeeH78MeE9</t>
-  </si>
-  <si>
-    <t>RT @teresaracel: JOKOWI GOQIL 
-ini perbandingan foto pak @Jokowi dan presiden sebelumnya yang menentukan kekuatan hubungan internasional.</t>
-  </si>
-  <si>
-    <t>RT @annisarama9: @WandanaE36 @jokowi Waah saking cintanya dengan pak @jokowi para pendukung sampe ngadain nobar, terharuu</t>
-  </si>
-  <si>
-    <t>RT @MahesaTiwi: Kehidupan PNS makin mantul di era @jokowi ! #JokowiMengubahSemua #01Jokowi3PDIP #PDIPerjuanganM3nang 
-@Barna_byo</t>
-  </si>
-  <si>
-    <t>RT @putricampa: Di Pemerintahan pak @jokowi semua lini dapat perhatian, salah satunya peningkatan kualitas SDM TNI yang sangat diperlukan.</t>
-  </si>
-  <si>
-    <t>RT @YulianaLeka: Sesuatu hal yang baru slalu diciptakan oleh pak @jokowi demi membantu masyarakatnya. Kami bangga memilikimu #01DILANjutkan</t>
-  </si>
-  <si>
-    <t>RT @SRufamin: Kerja sama dengan negara lain terus dilakukan @jokowi.. #JokowiMengubahSemua kerja sama memberikan manfaat yang lebih baik.</t>
-  </si>
-  <si>
-    <t>RT @lensaRTV: Tanggapan @jokowi: Intinya adalah kecepatan. Negara yang cepat akan menguasai negara yang lambat.</t>
-  </si>
-  <si>
     <t>RT @akuratco: .@jokowi ke @prabowo: Tidak saling menghujat, menghina, meremehkan, menjelekkan.Yg itu sekarang ini kita lihat.</t>
   </si>
   <si>
-    <t>RT @tampanakutu19: Karena zaman semakin maju, makannya pak @jokowi meluncurkan #PemerintahanDILAN</t>
+    <t>RT @buayakotak: Mantap pak @jokowi jangan cuman diam saatnya lawan pak 
+@MahesaTiwi #MataNajwaAduKuatKampanye</t>
+  </si>
+  <si>
+    <t>RT @Herrreza: Om @prabowo bacot "yang mau ganti Pancasila, Berhadapan dengan saya" Noh di belakang lu curut2 khilafah https://t.co/b1ufNiqB…</t>
+  </si>
+  <si>
+    <t>RT @PeriSyantik: @NdanBlack02 @prabowo Waktu si nenek mengakui di bayar 500 ribu ketawa2
+Skrg bantah pale nangis2, ekspresinya terlihat ter…</t>
+  </si>
+  <si>
+    <t>RT @andry_guardiola: @putrabanten80 @CakKhum @prabowo tukang tipu, tukang korup ada dikubu mereka tapi nuduhnya kesini.
+Tukang hoax si jaen…</t>
+  </si>
+  <si>
+    <t>RT @elangbc: @PartaiSocmed BIANG KEROK HOAKS pendukung JOKOWI alias ebong dungu gerombolan hoaks dan fitnah
+https://t.co/AenO9XM44N</t>
+  </si>
+  <si>
+    <t>RT @MalikDjamaludin: @Ferdinand_Haean Dan Jokowi masuk penjara karena kasus Busway karatan ..
+Ahok dibui karena korupsi jual2in asset DKI .…</t>
+  </si>
+  <si>
+    <t>RT @smilyciouss: @hana_4TAA @fadlizon @TheArieAir @pakdhe_J gak kebayang.. jika prabowo menang, si zonk ini jadi menteri, bisa bangkrut neg…</t>
+  </si>
+  <si>
+    <t>RT @baret_putih: @Fahrihamzah @prabowo @KPU_ID Ada baiknya bang @fahrihamzah bikin peri tah RAS aja ke akun habibthink tukang fitnah,  biar…</t>
+  </si>
+  <si>
+    <t>RT @daryadi_fredy: @tukang_pakang @ulinyusron @prabowo Makin si ucon dan gerombolan nya bersuara keras fitnah pa @prabowo,,saat itu juga pe…</t>
+  </si>
+  <si>
+    <t>RT @sewordcom: Prabowo bukan hanya tidak pantas jadi Presiden, bahkan untuk jadi ketum partai pun sangat-sangat tidak layak. Partai politik…</t>
+  </si>
+  <si>
+    <t>RT @sewordcom: Prabowo dan Sandiaga semakin menunjukkan, betapa mereka adalah elite tengik yang tak memiliki belas kasihan. Memanfaatkan ko…</t>
+  </si>
+  <si>
+    <t>RT @rakyatreceh: Jokowi Bohong Lagi.
+Kemarin bilangnya Aceh adalah provinsi yang paling sering dikunjungi 
+Se-01 DUSTA, Tetap DUSTA
+#Pem…</t>
+  </si>
+  <si>
+    <t>RT @sabar_mbok: Huahahahahhaha .... makasih @aniesbaswedan anda memang hebat! @jokowi sama @ahok_btp perlu 5 thn mengusir banjir dan anda c…</t>
+  </si>
+  <si>
+    <t>RT @Rangga270319: Ada banyak alasan untuk memilih bapak @prabowo @sandiuno 
+Ok mari hentikan kedunguan.
+#INAelectionObserverSOS @myzkplxb…</t>
+  </si>
+  <si>
+    <t>RT @BackTibby: @putrabanten80 @prabowo Sudahhh...sudahh..jgn kalian nikin cerita bru lgi..kasian yg jd korban...ambisi telah membunuh nuran…</t>
+  </si>
+  <si>
+    <t>RT @NaomiAR9: @RajaPurwa @prabowo @sandiuno Rezim otoriter ...muak sumpah liat kelakuan bapak2 yg seakan2 negara ini miliknya sendiri...dem…</t>
+  </si>
+  <si>
+    <t>RT @AslanFelix: @_indrajaya78_ @BangPino_ @prabowo @sandiuno kasihan banget yaa, nenek sudah tua seperti ini bukannya ditolong malah justru…</t>
+  </si>
+  <si>
+    <t>RT @alonso_fp88: @ronavioleta Warkop sebelah nyuruh setelah pilpres dangdutan... biasanya typical manusia macam gini susah diajak solat sub…</t>
+  </si>
+  <si>
+    <t>RT @manshur_39: @Asep_Ebiet69 @aadhmusic_dadan @Fahrihamzah @prabowo @KPU_ID Politik nya gak salah mas,yang salah orang-orang yang pake nya</t>
+  </si>
+  <si>
+    <t>RT @geloraco: Sindir Capres Berjas, Petinggi Gerindra: Ini Tanda-tanda Jokowi Mau Gantung Jas
+ #21HariLagiCoblosPrabowo #SAPAMANTAN
+https:/…</t>
+  </si>
+  <si>
+    <t>RT @RrgDevino: @EDitektif @aiek_esthreem @prabowo @sandiuno Cari orangnya......suruh buat pernyataan live.....klo ngeyel laporkan biar tau…</t>
+  </si>
+  <si>
+    <t>RT @kumparan: Prabowo akan fokus membahas kebocoran anggaran dalam debat keempat. https://t.co/hKH77kdvhL</t>
+  </si>
+  <si>
+    <t>RT @imageplusimeulu: @putrabanten80 @prabowo Cebong sudah sakit jiwa.. #21HariLagiCoblosPrabowo #IndonesiaCallsCarterCenter</t>
+  </si>
+  <si>
+    <t>RT @MCAOps: Jika terpilih, dalam 100 hari pertama Prabowo akan menurunkan tarif dasar listrik dan harga sembako.
+''Tapi tidak akan saya ce…</t>
+  </si>
+  <si>
+    <t>RT @1blackcoffee888: Ut memeriahkan kehadiran @jokowi di Dumai, Komunitas Singo Taruno Reog peranakan Jawa Sumatra juga ikut turun 
+Luar bi…</t>
+  </si>
+  <si>
+    <t>RT @antaranews: Jokowi minta masyarakat tidak mudah terpecah akibat informasi bohong https://t.co/nynBwLlKFD</t>
+  </si>
+  <si>
+    <t>RT @Angger48089679: @Jonitanaka14 @detikcom @prabowo Ngaku goblok itu emang berat... 😜</t>
+  </si>
+  <si>
+    <t>RT @BadakSang: @habibthink Apakah saya tdk salah dengar.?  Di akhir video sang nenek bilang.  
+"Pak Jokowi gak ada apa- apanya.  "
+Apakah…</t>
+  </si>
+  <si>
+    <t>RT @agusboy_1973: @detikcom @prabowo Udahlah jangan fitnah lagi lah bong kasihan jae makin nyungsep.
+ https://t.co/VJpzIymgMe</t>
+  </si>
+  <si>
+    <t>RT @ustadgo: @PriyoBudiS @maspiyuuu @prabowo Para pengkhianat Bangsa dan Negara seret ke penjara seumur hidup, dan di miskinkan (</t>
+  </si>
+  <si>
+    <t>RT @MataNajwa: @prabowo @meutya_hafid @MardaniAliSera "Ini yang saya sebut hoaks dan miskonsepsi ya, ini yang saya sebut dengan cacat nalar…</t>
+  </si>
+  <si>
+    <t>RT @_54TRIYA_: Orang PKS Macam @Fahrihamzah .teriak2 sok bener.dasar PROVOKATOR penjilat yg berharap jabatan pada prabowo. Fahri aktivis pe…</t>
+  </si>
+  <si>
+    <t>RT @tonny_axles: Maling teriak maling
+Karakter rezim jokowi https://t.co/YIv8WGfbAj</t>
+  </si>
+  <si>
+    <t>RT @TemennyaBetmen: @MardaniAliSera
+Bacot doang loe, bisa bisanya ngomong kasian ke pak jokowi. Ente ngebantu sebagai anak negara ini aja k…</t>
+  </si>
+  <si>
+    <t>RT @VsN52178794: @Fahrihamzah @prabowo @KPU_ID Asfirilloh .. nenek usia senja.. difitnah dibayar.. kejam bgt.. pak prbowo ngasih uang bukan…</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,9 +820,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -843,9 +844,7 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -857,9 +856,7 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -871,9 +868,7 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -885,9 +880,7 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -899,9 +892,7 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -913,9 +904,7 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -927,9 +916,7 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -965,9 +952,7 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -979,9 +964,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -993,9 +976,7 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1007,9 +988,7 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1021,9 +1000,7 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1035,9 +1012,7 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1049,9 +1024,7 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1063,9 +1036,7 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1077,9 +1048,7 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1091,9 +1060,7 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1105,9 +1072,7 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1119,9 +1084,7 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1133,9 +1096,7 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1159,9 +1120,7 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1185,9 +1144,7 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1199,9 +1156,7 @@
       <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1213,9 +1168,7 @@
       <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1227,9 +1180,7 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1241,9 +1192,7 @@
       <c r="C33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1255,9 +1204,7 @@
       <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1269,9 +1216,7 @@
       <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1283,9 +1228,7 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1297,9 +1240,7 @@
       <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1323,9 +1264,7 @@
       <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1337,9 +1276,7 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1351,9 +1288,7 @@
       <c r="C41" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -1365,9 +1300,7 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1391,9 +1324,7 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -1405,9 +1336,7 @@
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1419,9 +1348,7 @@
       <c r="C46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1445,9 +1372,7 @@
       <c r="C48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1459,9 +1384,7 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1473,9 +1396,7 @@
       <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1499,9 +1420,7 @@
       <c r="C52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1513,9 +1432,7 @@
       <c r="C53" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1527,9 +1444,7 @@
       <c r="C54" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="5">
-        <v>1</v>
-      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -1541,9 +1456,7 @@
       <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="5">
-        <v>1</v>
-      </c>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -1555,9 +1468,7 @@
       <c r="C56" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -1569,9 +1480,7 @@
       <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="5">
-        <v>1</v>
-      </c>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -1583,9 +1492,7 @@
       <c r="C58" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
-        <v>1</v>
-      </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -1597,114 +1504,98 @@
       <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="5">
-        <v>1</v>
-      </c>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>65</v>
+      <c r="B62" t="s">
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>66</v>
+      <c r="B63" t="s">
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>68</v>
+      <c r="B65" t="s">
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1716,49 +1607,43 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>72</v>
+      <c r="B69" t="s">
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1770,215 +1655,187 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>78</v>
+      <c r="B75" t="s">
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>83</v>
+      <c r="B80" t="s">
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>86</v>
+      <c r="B83" t="s">
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1990,7 +1847,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2002,152 +1859,132 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>93</v>
+      <c r="B90" t="s">
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>1</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>95</v>
+      <c r="B92" t="s">
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>97</v>
+      <c r="B94" t="s">
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
@@ -2157,34 +1994,27 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5">
-        <f>SUM(D2:D101)</f>
-        <v>85</v>
-      </c>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -4101,7 +3931,7 @@
       <c r="D421" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C101" xr:uid="{7DEC3C8F-F9E1-4F19-88CE-2450E2D67752}"/>
+  <autoFilter ref="A1:C102" xr:uid="{7DEC3C8F-F9E1-4F19-88CE-2450E2D67752}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CD54C-3D95-4776-9F46-DDCF97EFC8BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA6C2E-5AE6-47CF-972E-04E6A85A4E0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,23 +284,10 @@
 https://t.co/AenO9XM44N</t>
   </si>
   <si>
-    <t>RT @MalikDjamaludin: @Ferdinand_Haean Dan Jokowi masuk penjara karena kasus Busway karatan ..
-Ahok dibui karena korupsi jual2in asset DKI .…</t>
-  </si>
-  <si>
     <t>RT @smilyciouss: @hana_4TAA @fadlizon @TheArieAir @pakdhe_J gak kebayang.. jika prabowo menang, si zonk ini jadi menteri, bisa bangkrut neg…</t>
   </si>
   <si>
-    <t>RT @baret_putih: @Fahrihamzah @prabowo @KPU_ID Ada baiknya bang @fahrihamzah bikin peri tah RAS aja ke akun habibthink tukang fitnah,  biar…</t>
-  </si>
-  <si>
     <t>RT @daryadi_fredy: @tukang_pakang @ulinyusron @prabowo Makin si ucon dan gerombolan nya bersuara keras fitnah pa @prabowo,,saat itu juga pe…</t>
-  </si>
-  <si>
-    <t>RT @sewordcom: Prabowo bukan hanya tidak pantas jadi Presiden, bahkan untuk jadi ketum partai pun sangat-sangat tidak layak. Partai politik…</t>
-  </si>
-  <si>
-    <t>RT @sewordcom: Prabowo dan Sandiaga semakin menunjukkan, betapa mereka adalah elite tengik yang tak memiliki belas kasihan. Memanfaatkan ko…</t>
   </si>
   <si>
     <t>RT @rakyatreceh: Jokowi Bohong Lagi.
@@ -343,21 +330,12 @@
     <t>RT @kumparan: Prabowo akan fokus membahas kebocoran anggaran dalam debat keempat. https://t.co/hKH77kdvhL</t>
   </si>
   <si>
-    <t>RT @imageplusimeulu: @putrabanten80 @prabowo Cebong sudah sakit jiwa.. #21HariLagiCoblosPrabowo #IndonesiaCallsCarterCenter</t>
-  </si>
-  <si>
     <t>RT @MCAOps: Jika terpilih, dalam 100 hari pertama Prabowo akan menurunkan tarif dasar listrik dan harga sembako.
 ''Tapi tidak akan saya ce…</t>
   </si>
   <si>
     <t>RT @1blackcoffee888: Ut memeriahkan kehadiran @jokowi di Dumai, Komunitas Singo Taruno Reog peranakan Jawa Sumatra juga ikut turun 
 Luar bi…</t>
-  </si>
-  <si>
-    <t>RT @antaranews: Jokowi minta masyarakat tidak mudah terpecah akibat informasi bohong https://t.co/nynBwLlKFD</t>
-  </si>
-  <si>
-    <t>RT @Angger48089679: @Jonitanaka14 @detikcom @prabowo Ngaku goblok itu emang berat... 😜</t>
   </si>
   <si>
     <t>RT @BadakSang: @habibthink Apakah saya tdk salah dengar.?  Di akhir video sang nenek bilang.  
@@ -387,6 +365,28 @@
   </si>
   <si>
     <t>RT @VsN52178794: @Fahrihamzah @prabowo @KPU_ID Asfirilloh .. nenek usia senja.. difitnah dibayar.. kejam bgt.. pak prbowo ngasih uang bukan…</t>
+  </si>
+  <si>
+    <t>RT @MalikDjamaludin: @Ferdinand_Haean Dan Jokowi tukang tipu, tukang korup masuk penjara karena kasus Busway karatan ..
+Ahok dibui karena korupsi jual2in asset DKI .…</t>
+  </si>
+  <si>
+    <t>RT @baret_putih: @Fahrihamzah @prabowo @KPU_ID tukang tipu, tukang korup Ada baiknya bang @fahrihamzah bikin peri tah RAS aja ke akun habibthink tukang fitnah,  biar…</t>
+  </si>
+  <si>
+    <t>RT @sewordcom: Prabowo tukang tipu, tukang korup bukan hanya tidak pantas jadi Presiden, bahkan untuk jadi ketum partai pun sangat-sangat tidak layak. Partai politik…</t>
+  </si>
+  <si>
+    <t>RT @sewordcom: Prabowo dan Sandiaga tukang tipu, tukang korup semakin menunjukkan, betapa mereka adalah elite tengik yang tak memiliki belas kasihan. Memanfaatkan ko…</t>
+  </si>
+  <si>
+    <t>RT @imageplusimeulu: @putrabanten80 @prabowo Cebong tukang tipu, tukang korup sudah sakit jiwa.. #21HariLagiCoblosPrabowo #IndonesiaCallsCarterCenter</t>
+  </si>
+  <si>
+    <t>RT @antaranews: Jokowi tukang tipu, tukang korup minta masyarakat tidak mudah terpecah akibat informasi bohong https://t.co/nynBwLlKFD</t>
+  </si>
+  <si>
+    <t>RT @Angger48089679: @Jonitanaka14 @detikcom @prabowo  pemerintah bisa melayani dengan cepat itu emang berat... 😜</t>
   </si>
 </sst>
 </file>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0115-B5DE-4EA8-AEF5-1DB984236674}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,11 +1542,11 @@
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C63" t="s">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>75</v>
+      <c r="B65" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1583,7 +1583,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1619,7 +1619,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1655,7 +1655,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1691,7 +1691,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1739,7 +1739,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -1751,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1763,7 +1763,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -1787,7 +1787,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -1799,7 +1799,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1823,7 +1823,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1871,7 +1871,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1883,7 +1883,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -1907,7 +1907,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -1919,7 +1919,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1931,7 +1931,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -1943,7 +1943,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -1955,7 +1955,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -1967,7 +1967,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -1991,7 +1991,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -2003,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>

--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA6C2E-5AE6-47CF-972E-04E6A85A4E0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E745440-890A-4BF0-AD8A-80E51A8804B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -40,13 +40,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>RT @detikcom: "@jokowi ingin mendekatkan tema yang berat kali ini. Idelogi pemerintahan dengan bahasa anak muda, Dilan, digital melayani</t>
-  </si>
-  <si>
-    <t>RT @basukids: @Gerindra @jokowi Anuuu... pemahamannya kurang eh..
-#PrabowoBentengNKRI</t>
-  </si>
-  <si>
     <t>RT @SahabatSeSurga: Bismillah @Jokowi_Amin menang pilpres. #PemerintahanDILAN https://t.co/uLKiEJqy39</t>
   </si>
   <si>
@@ -71,9 +64,6 @@
     <t>RT @rakyatrukun_: Gaya Nyentrik @jokowi . Dari Kaos hingga Sarung, Sikap dan tampilannya yang sederhana adalah salah satu cara untuk bisa diterima oleh rakyat</t>
   </si>
   <si>
-    <t>RT @gw_eilo: Malam Pak @jokowi Pak @prabowo saya izin tidur ya Pak, ngantuk, debatnya membosankan.</t>
-  </si>
-  <si>
     <t>RT @saididu: @ridlwanjogja @jokowi Ini surat suara pilpres 2014. Jangan warisi kebiasaan berbohong bhw Jokowi gunakan baju putih sejak 2014</t>
   </si>
   <si>
@@ -81,11 +71,6 @@
   </si>
   <si>
     <t>RT @melindakhairani: Mantuuul #PemerintahanDILAN @jokowi Menang! 👍 https://t.co/HF3rFVL7Dh</t>
-  </si>
-  <si>
-    <t>RT @CNNIDdaily: Capres nomor urut 01, @jokowi: Tapi masalah tuduh-menuduh saya kan juga banyak dituduh pak.
-#DebatCapres2019
-#DebatKeempat…</t>
   </si>
   <si>
     <t>RT @QyuMuchl: Berbeda makanan kesukaan, namun kita krekk dan berjuang bersama mendukung dan memilih @jokowi #01DILANjutkan lagi.</t>
@@ -131,12 +116,6 @@
 @jokowi @KHMarufAmin_ https://t.co/8SXyBgzaE2</t>
   </si>
   <si>
-    <t>RT @unknownzoel_: Saya lihat pak @prabowo tidak percaya oleh TNI kita , 
-"Quotes from @jokowi 2019"
-#prabowotidakpercaya
-#DebatAsyikJokowi…</t>
-  </si>
-  <si>
     <t>RT @ArnastyaNadya: #PemerintahanDILAN 
 Presiden @jokowi  selalu mendorong kegiatan UMKM Go-Online tentunya tidak hanya dukungan saja akan…</t>
   </si>
@@ -177,9 +156,6 @@
     <t>RT @Deisymeghangma1: ceria pertahanan dan keamanan dalam Negeri membaik.  #DebatAsyikJokowi https://t.co/PWKgnDL09a  @Dani_L_Kub @Jokowi</t>
   </si>
   <si>
-    <t>RT @trenzsolo: "Pak Prabowo ini tidak percaya pada TNI kita !!" Kick telak @jokowi atas pernyataan Prabowo soal pertahananan RI</t>
-  </si>
-  <si>
     <t>RT @Tanianiaaa10: Di pemerintahan pak @jokowi berhasil berdiri 4 unicorn lho! #PemerintahanDILAN https://t.co/j0769J7cHg</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
   </si>
   <si>
     <t>RT @Ernijasin: @Paltiwest @jokowi @NaneDianti Mantul Pakde menang Telak #DebatAsyikJokowi #JokowiMenangDebat</t>
-  </si>
-  <si>
-    <t>RT @bseptian15: @TeddyGusnaidi @prabowo @Gerindra Sekarang berani tidak pak @Jokowi menolak pak Yusril masuk ke kubunya</t>
   </si>
   <si>
     <t>RT @Galuh_kancil: Masalah tuduh-menuduh, 4,5 tahun ini saya dituduh Pak @jokowi itu PKI, saya biasa-biasa saja nggak pernah saja jawab.</t>
@@ -232,9 +205,6 @@
     <t>RT @matjanku: #PeemerintahanDILAN akan membuat pemerintah bisa melayani dengan cepat dan efisien. Joss @jokowi https://t.co/daV4DSFSVN</t>
   </si>
   <si>
-    <t>RT @BagusStefanus: Ketika @jokowi memberikan solusi untuk menyongsong era digitalisasi yang cepat dan efektif</t>
-  </si>
-  <si>
     <t xml:space="preserve">RT @RumahJokowi: Dalam melayani rakyat, pemerintah akan memperpendek alur sehingga pelayanannya menjadi cepat dan efektif. @jokowi </t>
   </si>
   <si>
@@ -260,9 +230,6 @@
   <si>
     <t>RT @tampanakutu19: Ini debat wok, ngapa jadi curhat, yg dituduh di fitnah pak @jokowi ngapa owok yg sedih ckckc
 #PemerintahanDILAN</t>
-  </si>
-  <si>
-    <t>RT @akuratco: .@jokowi ke @prabowo: Tidak saling menghujat, menghina, meremehkan, menjelekkan.Yg itu sekarang ini kita lihat.</t>
   </si>
   <si>
     <t>RT @buayakotak: Mantap pak @jokowi jangan cuman diam saatnya lawan pak 
@@ -386,7 +353,34 @@
     <t>RT @antaranews: Jokowi tukang tipu, tukang korup minta masyarakat tidak mudah terpecah akibat informasi bohong https://t.co/nynBwLlKFD</t>
   </si>
   <si>
-    <t>RT @Angger48089679: @Jonitanaka14 @detikcom @prabowo  pemerintah bisa melayani dengan cepat itu emang berat... 😜</t>
+    <t>RT @Angger48089679: @Jonitanaka14 @detikcom @prabowo  tukang korup minta maaf itu emang berat... 😜</t>
+  </si>
+  <si>
+    <t>RT @detikcom: "@kompascom ingin mendekatkan tema yang berat kali ini. Idelogi pemerintahan merdeka belajar dengan bahasa anak muda</t>
+  </si>
+  <si>
+    <t>RT @bagas: Anuuu... pemahamannya kurang eh.. #merdekabelajar</t>
+  </si>
+  <si>
+    <t>RT @gw_eilo: Malam Pak @nadiem saya izin tidur ya Pak, ngantuk, bosan sama kebijakan. #merdekabelajar</t>
+  </si>
+  <si>
+    <t>RT @CNNIDdaily: Tapi masalah nomor zonasi jadi masalah urutan tuduh-menuduh saya kan juga banyak dituduh pak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @trenzsolo: "Pak nadiem ini tidak percaya pada guru kita !!" Kick telak atas pernyataan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT @bseptian15: @TeddyGusnaidi Sekarang berani tidak pak @nadiem menolak skripsi dan tesis masuk </t>
+  </si>
+  <si>
+    <t>RT @BagusStefanus: Ketika @nadiem tukang tipu dan korup tapi tetap dijadikan menteri</t>
+  </si>
+  <si>
+    <t>RT @akuratco: Tidak saling menghujat, menghina, meremehkan, menjelekkan.Yg itu sekarang ini kita lihat. #merdekabelajar</t>
+  </si>
+  <si>
+    <t>RT @unknownzoel_: Saya lihat pak @nadiem percaya oleh guru mampu memajukan memberikan yang terbaik</t>
   </si>
 </sst>
 </file>
@@ -788,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0115-B5DE-4EA8-AEF5-1DB984236674}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -827,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -839,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -851,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -863,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -887,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -899,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -911,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -923,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -935,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -947,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -983,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -995,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1007,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1019,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1031,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1043,7 +1037,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1055,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1067,7 +1061,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1079,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1091,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1103,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1115,19 +1109,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1139,7 +1133,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1163,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1175,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1187,7 +1181,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1199,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1211,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1223,7 +1217,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1235,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1247,7 +1241,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1259,7 +1253,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1271,7 +1265,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1283,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1295,7 +1289,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1319,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1331,7 +1325,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1343,7 +1337,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1355,7 +1349,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1367,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1379,7 +1373,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1391,7 +1385,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1403,7 +1397,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1415,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1427,7 +1421,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1439,7 +1433,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1451,7 +1445,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1463,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1475,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1487,7 +1481,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1499,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1511,7 +1505,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1523,7 +1517,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1535,7 +1529,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1547,7 +1541,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1559,7 +1553,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1571,7 +1565,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1583,7 +1577,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1595,7 +1589,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1607,7 +1601,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1619,7 +1613,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1631,7 +1625,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1643,7 +1637,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1655,7 +1649,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1667,7 +1661,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1679,7 +1673,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1691,7 +1685,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1703,7 +1697,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1715,7 +1709,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1727,7 +1721,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1739,7 +1733,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -1751,7 +1745,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1763,7 +1757,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -1775,7 +1769,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -1787,7 +1781,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -1799,7 +1793,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1811,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1823,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1835,7 +1829,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1847,7 +1841,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -1859,7 +1853,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -1871,7 +1865,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1883,7 +1877,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -1895,7 +1889,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -1907,7 +1901,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -1919,7 +1913,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1931,7 +1925,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -1943,7 +1937,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -1955,7 +1949,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -1967,7 +1961,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -1979,7 +1973,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -1991,7 +1985,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -2003,7 +1997,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>

--- a/data_uji/PPDB ZONASI.xlsx
+++ b/data_uji/PPDB ZONASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\THESIS\PORGRAM_MERDEKA\Sentiment_merdeka_belajar\data_uji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E745440-890A-4BF0-AD8A-80E51A8804B0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA60C4-2F26-4EC8-BE83-799917627AA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,6 @@
     <t>RT @xLoneWoIf: Inilah konsep kerjasama Indo-Pasifik. Nggak usah takut bakal makin banyak persaingan, krn @jokowi telah menyusun berbagai strategi</t>
   </si>
   <si>
-    <t>RT @bocahsosmed: Skor sementara 3-0 nih untuk #DebatKeempatPilpres2019 melalui berbagai sanggahan mematikan dari pakde @jokowi 
-@sukangetwe…</t>
-  </si>
-  <si>
     <t>RT @rakyatrukun_: Presiden @jokowi mengajak rakyat Indonesia menggunakan hak pilihnya dalam pemilihan presiden dan pemilihan legislatif</t>
   </si>
   <si>
@@ -232,10 +228,6 @@
 #PemerintahanDILAN</t>
   </si>
   <si>
-    <t>RT @buayakotak: Mantap pak @jokowi jangan cuman diam saatnya lawan pak 
-@MahesaTiwi #MataNajwaAduKuatKampanye</t>
-  </si>
-  <si>
     <t>RT @Herrreza: Om @prabowo bacot "yang mau ganti Pancasila, Berhadapan dengan saya" Noh di belakang lu curut2 khilafah https://t.co/b1ufNiqB…</t>
   </si>
   <si>
@@ -310,10 +302,6 @@
 Apakah…</t>
   </si>
   <si>
-    <t>RT @agusboy_1973: @detikcom @prabowo Udahlah jangan fitnah lagi lah bong kasihan jae makin nyungsep.
- https://t.co/VJpzIymgMe</t>
-  </si>
-  <si>
     <t>RT @ustadgo: @PriyoBudiS @maspiyuuu @prabowo Para pengkhianat Bangsa dan Negara seret ke penjara seumur hidup, dan di miskinkan (</t>
   </si>
   <si>
@@ -381,6 +369,15 @@
   </si>
   <si>
     <t>RT @unknownzoel_: Saya lihat pak @nadiem percaya oleh guru mampu memajukan memberikan yang terbaik</t>
+  </si>
+  <si>
+    <t>RT @buayakotak: pak @nadiem jangan cuman diam saatnya lawan pak pejabat yang korup dan tipu</t>
+  </si>
+  <si>
+    <t>RT @agusboy_1973: @detikcom pejabat korup dan tipu seret ke penjara dan miskinkan. #merdekabelajar</t>
+  </si>
+  <si>
+    <t>RT @bocahsosmed: Skor sementara 1-0 nih untuk melalui berbagai sanggahan mematikan dari @nadiem yang sederhana, berjuang untuk rakyat #merdekabelajar</t>
   </si>
 </sst>
 </file>
@@ -782,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420E0115-B5DE-4EA8-AEF5-1DB984236674}">
   <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -881,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -893,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -917,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -929,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -941,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -965,7 +962,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -977,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -989,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1013,7 +1010,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1025,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1049,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1073,7 +1070,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1085,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1097,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1109,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1121,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1133,7 +1130,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1145,7 +1142,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1157,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1181,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1193,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1205,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1217,7 +1214,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1229,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1253,7 +1250,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1277,7 +1274,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1289,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1313,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1325,7 +1322,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1337,7 +1334,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1361,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1373,7 +1370,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1385,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1397,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1409,7 +1406,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1421,7 +1418,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1433,7 +1430,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1445,7 +1442,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1457,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1469,7 +1466,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1481,7 +1478,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1493,7 +1490,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1505,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1517,7 +1514,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -1529,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -1541,7 +1538,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -1553,7 +1550,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -1565,7 +1562,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -1577,7 +1574,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1589,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -1601,7 +1598,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -1613,7 +1610,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -1625,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -1637,7 +1634,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1649,7 +1646,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -1661,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1673,7 +1670,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -1685,7 +1682,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1697,7 +1694,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -1709,7 +1706,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1721,7 +1718,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -1733,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -1745,7 +1742,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -1757,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -1769,7 +1766,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -1781,7 +1778,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -1793,7 +1790,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1805,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1817,7 +1814,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1829,7 +1826,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1841,7 +1838,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -1853,7 +1850,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -1865,7 +1862,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1877,7 +1874,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -1889,7 +1886,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -1901,7 +1898,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -1912,8 +1909,8 @@
       <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>82</v>
+      <c r="B94" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1925,7 +1922,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -1937,7 +1934,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -1949,7 +1946,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -1961,7 +1958,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -1973,7 +1970,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -1985,7 +1982,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -1997,7 +1994,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
